--- a/Data/Potential/AMOS.xlsx
+++ b/Data/Potential/AMOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="473" visibility="visible" windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="473" visibility="visible" windowHeight="7760" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -352,16 +352,16 @@
   <dimension ref="A1:O161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col bestFit="1" customWidth="1" max="4" min="2" width="12"/>
-    <col customWidth="1" max="6" min="6" width="14.28515625"/>
-    <col customWidth="1" max="7" min="7" width="13.28515625"/>
+    <col customWidth="1" max="6" min="6" width="14.26953125"/>
+    <col customWidth="1" max="7" min="7" width="13.26953125"/>
     <col customWidth="1" max="9" min="8" width="14"/>
-    <col customWidth="1" max="11" min="11" width="12.7109375"/>
+    <col customWidth="1" max="11" min="11" width="12.7265625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -41052,7 +41052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41063,32 +41063,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>s1_mm</t>
+          <t>sim1_mm</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>s2_mm</t>
+          <t>sim2_mm</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>s3_mm</t>
+          <t>sim3_mm</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>s4_mm</t>
+          <t>sim4_mm</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>s5_mm</t>
+          <t>sim5_mm</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>s6_mm</t>
+          <t>sim6_mm</t>
         </is>
       </c>
     </row>
@@ -41115,157 +41115,166 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>s1_xx</t>
+          <t>sim1_xx</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>s2_xx</t>
+          <t>sim2_xx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>s3_xx</t>
+          <t>sim3_xx</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>s4_xx</t>
+          <t>sim4_xx</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>s5_xx</t>
+          <t>sim5_xx</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>s6_xx</t>
+          <t>sim6_xx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.95634</v>
+        <v>0.92259</v>
       </c>
       <c r="B4" t="n">
-        <v>0.83184</v>
+        <v>0.79801</v>
       </c>
       <c r="C4" t="n">
-        <v>0.76005</v>
+        <v>0.72655</v>
       </c>
       <c r="D4" t="n">
-        <v>0.85859</v>
+        <v>0.82587</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9121899999999999</v>
+        <v>0.87867</v>
       </c>
       <c r="F4" t="n">
-        <v>0.75231</v>
+        <v>0.71856</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9662500000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>s1_mx</t>
+          <t>sim1_mx</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>s2_xx</t>
+          <t>sim2_xx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>s3_xx</t>
+          <t>sim3_xx</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>s4_xx</t>
+          <t>sim4_xx</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>s5_xx</t>
+          <t>sim5_xx</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>s6_xx</t>
+          <t>sim6_xx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.95717</v>
+        <v>0.92256</v>
       </c>
       <c r="B6" t="n">
-        <v>0.85703</v>
+        <v>0.82294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7377</v>
+        <v>0.70202</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8456399999999999</v>
+        <v>0.81168</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9193</v>
+        <v>0.88472</v>
       </c>
       <c r="F6" t="n">
-        <v>0.73198</v>
+        <v>0.69738</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.96539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>s1_xm</t>
+          <t>sim1_xm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>s2_xm</t>
+          <t>sim2_xm</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>s3_xm</t>
+          <t>sim3_xm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>s4_xm</t>
+          <t>sim4_xm</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>s5_xm</t>
+          <t>sim5_xm</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>s6_xm</t>
+          <t>sim6_xm</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.95045</v>
+        <v>0.90606</v>
       </c>
       <c r="B8" t="n">
-        <v>0.84421</v>
+        <v>0.79801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.77236</v>
+        <v>0.72655</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86938</v>
+        <v>0.82587</v>
       </c>
       <c r="E8" t="n">
-        <v>0.91998</v>
+        <v>0.8758</v>
       </c>
       <c r="F8" t="n">
-        <v>0.76295</v>
+        <v>0.71856</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.95562</v>
       </c>
     </row>
     <row r="9">
@@ -41279,101 +41288,216 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sum_mm</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>s1_mm</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>s2_mm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>s3_mm</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>s4_mm</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s5_mm</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s6_mm</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>0.86445</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="A11" t="n">
+        <v>0.91925</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.82294</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.70202</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.81168</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8894300000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.69738</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.96324</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a_mm_factors</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>s1_xx</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>s2_xx</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>s3_xx</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>s4_xx</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s5_xx</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>s6_xx</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>[0.29615, 0.18485, 0.04639, 0.1716, 0.26152, 0.03949]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="A13" t="n">
+        <v>0.95634</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.83184</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.76005</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.85859</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9121899999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.75231</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>s1_mx</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>s2_xx</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>s3_xx</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>s4_xx</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>s5_xx</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s6_xx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>sum_xx</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="A15" t="n">
+        <v>0.95717</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.85703</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7377</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8456399999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9193</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.73198</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.87132</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+          <t>s1_xm</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>s2_xm</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>s3_xm</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>s4_xm</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s5_xm</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>s6_xm</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>a_xx_factors</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="A17" t="n">
+        <v>0.95045</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.84421</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.77236</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.86938</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.91998</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.76295</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[0.2942, 0.15131, 0.06892, 0.18201, 0.24353, 0.06004]</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -41381,7 +41505,11 @@
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sum_mm</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -41391,7 +41519,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sum_mx</t>
+          <t>0.86445</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -41403,7 +41531,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.84882</t>
+          <t>a_mm_factors</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -41415,7 +41543,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a_mx_factors</t>
+          <t>[0.29615, 0.18485, 0.04639, 0.1716, 0.26152, 0.03949]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -41425,11 +41553,7 @@
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>[0.30297, 0.185, 0.04441, 0.17158, 0.25836, 0.03768]</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -41437,7 +41561,11 @@
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sum_xx</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -41447,7 +41575,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sum_xm</t>
+          <t>0.87132</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -41459,7 +41587,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0.91933</t>
+          <t>a_xx_factors</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -41471,7 +41599,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>a_xm_factors</t>
+          <t>[0.2942, 0.15131, 0.06892, 0.18201, 0.24353, 0.06004]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -41481,16 +41609,116 @@
       <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>[0.27243, 0.15686, 0.07871, 0.18424, 0.23928, 0.06847]</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sum_mx</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0.84882</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>a_mx_factors</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>[0.30297, 0.185, 0.04441, 0.17158, 0.25836, 0.03768]</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>sum_xm</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0.91933</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>a_xm_factors</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>[0.27243, 0.15686, 0.07871, 0.18424, 0.23928, 0.06847]</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -41568,10 +41796,10 @@
         <v>0.1791095743962186</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1963500725777325</v>
+        <v>0.1882830561033638</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1897784238362706</v>
+        <v>0.2024023011293328</v>
       </c>
       <c r="D3" t="n">
         <v>0.2069191971925434</v>
@@ -41588,10 +41816,10 @@
         <v>0.1111659181683619</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1254509179967488</v>
+        <v>0.1211901519745822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1210430016615339</v>
+        <v>0.1280969083876283</v>
       </c>
       <c r="D4" t="n">
         <v>0.1352629658228207</v>
@@ -41648,10 +41876,10 @@
         <v>0.1958880644906695</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2215230196036986</v>
+        <v>0.2198586372441348</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2221010288296678</v>
+        <v>0.2309031901614757</v>
       </c>
       <c r="D7" t="n">
         <v>0.2461499079261595</v>
@@ -41668,10 +41896,10 @@
         <v>0.753284553890906</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7610782686062784</v>
+        <v>0.7736052119409251</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7726937428475272</v>
+        <v>0.7518929599082349</v>
       </c>
       <c r="D8" t="n">
         <v>0.7803596577369147</v>
@@ -41680,7 +41908,7 @@
         <v>0.7803596577369147</v>
       </c>
       <c r="F8" t="n">
-        <v>0.753284553890906</v>
+        <v>0.7518929599082349</v>
       </c>
     </row>
     <row r="9">
@@ -41688,19 +41916,19 @@
         <v>0.9134030745320969</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8900053641933974</v>
+        <v>0.9152185648497506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9134030745320969</v>
+        <v>0.8809431937750207</v>
       </c>
       <c r="D9" t="n">
         <v>0.8900053641933974</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9134030745320969</v>
+        <v>0.9152185648497506</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8900053641933974</v>
+        <v>0.8809431937750207</v>
       </c>
     </row>
     <row r="10">
@@ -41708,10 +41936,10 @@
         <v>0.1419960100629397</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1661641354954311</v>
+        <v>0.159278868661506</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1594911833347982</v>
+        <v>0.1720482378864356</v>
       </c>
       <c r="D10" t="n">
         <v>0.1835441117796816</v>
@@ -41728,10 +41956,10 @@
         <v>0.453256726682886</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4694843225706948</v>
+        <v>0.4585025994809304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.454377323899677</v>
+        <v>0.4560287571181687</v>
       </c>
       <c r="D11" t="n">
         <v>0.4705278337369732</v>
@@ -41748,16 +41976,16 @@
         <v>0.01128101504229527</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01490687065025754</v>
+        <v>0.01155565204845588</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01184155322671589</v>
+        <v>0.01644026947188089</v>
       </c>
       <c r="D12" t="n">
         <v>0.0154637179703877</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0154637179703877</v>
+        <v>0.01644026947188089</v>
       </c>
       <c r="F12" t="n">
         <v>0.01128101504229527</v>
@@ -41768,10 +41996,10 @@
         <v>0.303938168547084</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3340904627844693</v>
+        <v>0.3277563672360311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.328032719199488</v>
+        <v>0.341419024621707</v>
       </c>
       <c r="D13" t="n">
         <v>0.3578246896874112</v>
@@ -41788,19 +42016,19 @@
         <v>0.943206708083296</v>
       </c>
       <c r="B14" t="n">
-        <v>0.921617015374363</v>
+        <v>0.9450187247839854</v>
       </c>
       <c r="C14" t="n">
-        <v>0.943206708083296</v>
+        <v>0.9129421532474733</v>
       </c>
       <c r="D14" t="n">
         <v>0.921617015374363</v>
       </c>
       <c r="E14" t="n">
-        <v>0.943206708083296</v>
+        <v>0.9450187247839854</v>
       </c>
       <c r="F14" t="n">
-        <v>0.921617015374363</v>
+        <v>0.9129421532474733</v>
       </c>
     </row>
     <row r="15">
@@ -41808,19 +42036,19 @@
         <v>0.0374613533001443</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03556758404070248</v>
+        <v>0.03868656924360527</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03904402650289898</v>
+        <v>0.03505024572603686</v>
       </c>
       <c r="D15" t="n">
         <v>0.03708614995316251</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03904402650289898</v>
+        <v>0.03868656924360527</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03556758404070248</v>
+        <v>0.03505024572603686</v>
       </c>
     </row>
     <row r="16">
@@ -41828,10 +42056,10 @@
         <v>0.03296828964954145</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03857132329104077</v>
+        <v>0.04103991893214771</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04097081909240192</v>
+        <v>0.0396375990733706</v>
       </c>
       <c r="D16" t="n">
         <v>0.04640743909756202</v>
@@ -41848,16 +42076,16 @@
         <v>0.1308842739732018</v>
       </c>
       <c r="B17" t="n">
-        <v>0.151917648730199</v>
+        <v>0.1337567234240957</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1348292166487842</v>
+        <v>0.1591841833659472</v>
       </c>
       <c r="D17" t="n">
         <v>0.1558366159264048</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1558366159264048</v>
+        <v>0.1591841833659472</v>
       </c>
       <c r="F17" t="n">
         <v>0.1308842739732018</v>
@@ -41888,10 +42116,10 @@
         <v>0.1833174089502538</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1963626103296547</v>
+        <v>0.2253482904784578</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2253062524347316</v>
+        <v>0.197168424800706</v>
       </c>
       <c r="D19" t="n">
         <v>0.2368599473682348</v>
@@ -41928,10 +42156,10 @@
         <v>0.2811163016982371</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3033267035212269</v>
+        <v>0.3125107485647187</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3127593802610496</v>
+        <v>0.3085332422308557</v>
       </c>
       <c r="D21" t="n">
         <v>0.3340062528456982</v>
@@ -41948,19 +42176,19 @@
         <v>0.01996135040539471</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01858820611894224</v>
+        <v>0.02378622301052244</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02407715219736735</v>
+        <v>0.0182638112763951</v>
       </c>
       <c r="D22" t="n">
         <v>0.02242088128871548</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02407715219736735</v>
+        <v>0.02378622301052244</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01858820611894224</v>
+        <v>0.0182638112763951</v>
       </c>
     </row>
     <row r="23">
@@ -41988,10 +42216,10 @@
         <v>0.1335064633830877</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1455360478575809</v>
+        <v>0.1722635676720433</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1744126335154808</v>
+        <v>0.1518346564852488</v>
       </c>
       <c r="D24" t="n">
         <v>0.1853048085913482</v>
@@ -42008,10 +42236,10 @@
         <v>0.01414939510483664</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01617916737279694</v>
+        <v>0.01733397816735102</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01726285971732223</v>
+        <v>0.01651089298661771</v>
       </c>
       <c r="D25" t="n">
         <v>0.01927213137412485</v>
@@ -42028,19 +42256,19 @@
         <v>0.04939842725474935</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04659810394916056</v>
+        <v>0.05133675716892751</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05171960970675877</v>
+        <v>0.04567047842217289</v>
       </c>
       <c r="D26" t="n">
         <v>0.04889530478271381</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05171960970675877</v>
+        <v>0.05133675716892751</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04659810394916056</v>
+        <v>0.04567047842217289</v>
       </c>
     </row>
     <row r="27">
@@ -42068,19 +42296,19 @@
         <v>0.06111286411701031</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05690890103401469</v>
+        <v>0.06222317020388816</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06298422151927864</v>
+        <v>0.05591574688711467</v>
       </c>
       <c r="D28" t="n">
         <v>0.05865152748007774</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06298422151927864</v>
+        <v>0.06222317020388816</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05690890103401469</v>
+        <v>0.05591574688711467</v>
       </c>
     </row>
     <row r="29">
@@ -42108,10 +42336,10 @@
         <v>0.3955722409437365</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4136260754391166</v>
+        <v>0.4290529615580803</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4290742452517448</v>
+        <v>0.4141230339028249</v>
       </c>
       <c r="D30" t="n">
         <v>0.4463967424570382</v>
@@ -42128,10 +42356,10 @@
         <v>0.1511720835217887</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1565416201734365</v>
+        <v>0.1608866514682442</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1615583433863707</v>
+        <v>0.1620436017039498</v>
       </c>
       <c r="D31" t="n">
         <v>0.1667489218201899</v>
@@ -42148,10 +42376,10 @@
         <v>0.181682372694607</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2017377598886596</v>
+        <v>0.1929221332635581</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1948642815724117</v>
+        <v>0.2091170827924573</v>
       </c>
       <c r="D32" t="n">
         <v>0.2142533646199059</v>
@@ -42268,10 +42496,10 @@
         <v>0.4389716208050481</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4521854721328883</v>
+        <v>0.5044101846073523</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5046230258173213</v>
+        <v>0.4544403063496717</v>
       </c>
       <c r="D38" t="n">
         <v>0.5167065979674519</v>
@@ -42288,10 +42516,10 @@
         <v>0.2284820796182316</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2583666628294343</v>
+        <v>0.2455293821554913</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2466638750163448</v>
+        <v>0.2687580052075147</v>
       </c>
       <c r="D39" t="n">
         <v>0.2764287401757956</v>
@@ -42308,10 +42536,10 @@
         <v>0.6794475959542192</v>
       </c>
       <c r="B40" t="n">
-        <v>0.685367732699378</v>
+        <v>0.7054237294001503</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7037337449994472</v>
+        <v>0.6715099359795583</v>
       </c>
       <c r="D40" t="n">
         <v>0.7083996573445968</v>
@@ -42320,7 +42548,7 @@
         <v>0.7083996573445968</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6794475959542192</v>
+        <v>0.6715099359795583</v>
       </c>
     </row>
     <row r="41">
@@ -42328,19 +42556,19 @@
         <v>0.7883766247773972</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7734263885236821</v>
+        <v>0.8059430226892943</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8025893825268973</v>
+        <v>0.76609555605923</v>
       </c>
       <c r="D41" t="n">
         <v>0.786661448537202</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8025893825268973</v>
+        <v>0.8059430226892943</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7734263885236821</v>
+        <v>0.76609555605923</v>
       </c>
     </row>
     <row r="42">
@@ -42348,19 +42576,19 @@
         <v>0.96051</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9399700000000001</v>
+        <v>0.9623199999999998</v>
       </c>
       <c r="C42" t="n">
-        <v>0.96051</v>
+        <v>0.9315199999999999</v>
       </c>
       <c r="D42" t="n">
         <v>0.9399700000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.96051</v>
+        <v>0.9623199999999998</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9399700000000001</v>
+        <v>0.9315199999999999</v>
       </c>
     </row>
     <row r="43">
@@ -42368,19 +42596,19 @@
         <v>0.05419666770804497</v>
       </c>
       <c r="B43" t="n">
-        <v>0.05048656281185159</v>
+        <v>0.07393905848633796</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07448745623938859</v>
+        <v>0.04958915151278066</v>
       </c>
       <c r="D43" t="n">
         <v>0.06998644620082145</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07448745623938859</v>
+        <v>0.07393905848633796</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05048656281185159</v>
+        <v>0.04958915151278066</v>
       </c>
     </row>
     <row r="44">
@@ -42408,10 +42636,10 @@
         <v>0.1765234532385889</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190316665008361</v>
+        <v>0.1861164656913881</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1868640759346185</v>
+        <v>0.1939911172603033</v>
       </c>
       <c r="D45" t="n">
         <v>0.2004054012173848</v>
@@ -42428,16 +42656,16 @@
         <v>0.1120512734961021</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1299557364997421</v>
+        <v>0.1145970190397593</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1154399875277454</v>
+        <v>0.1359001709237401</v>
       </c>
       <c r="D46" t="n">
         <v>0.1333221375401252</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1333221375401252</v>
+        <v>0.1359001709237401</v>
       </c>
       <c r="F46" t="n">
         <v>0.1120512734961021</v>
@@ -42448,10 +42676,10 @@
         <v>0.1369869116256883</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1441530327636997</v>
+        <v>0.1505427207751941</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1515673662876393</v>
+        <v>0.1468247622519083</v>
       </c>
       <c r="D47" t="n">
         <v>0.1582040416464535</v>
@@ -42508,10 +42736,10 @@
         <v>0.7105821191199788</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7201106686475074</v>
+        <v>0.7543993792377789</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7516190337649922</v>
+        <v>0.7107890152324471</v>
       </c>
       <c r="D50" t="n">
         <v>0.7590228039738669</v>
@@ -42548,10 +42776,10 @@
         <v>0.2104655151961633</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2235088086706443</v>
+        <v>0.2352852000901514</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2369998575234509</v>
+        <v>0.2282322247016497</v>
       </c>
       <c r="D52" t="n">
         <v>0.2498325594344871</v>
@@ -42568,19 +42796,19 @@
         <v>0.96051</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9399700000000001</v>
+        <v>0.9623199999999998</v>
       </c>
       <c r="C53" t="n">
-        <v>0.96051</v>
+        <v>0.9315199999999999</v>
       </c>
       <c r="D53" t="n">
         <v>0.9399700000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.96051</v>
+        <v>0.9623199999999998</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9399700000000001</v>
+        <v>0.9315199999999999</v>
       </c>
     </row>
     <row r="54">
@@ -42588,19 +42816,19 @@
         <v>0.9200661764825104</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8970726787970964</v>
+        <v>0.9218808902148552</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9200661764825104</v>
+        <v>0.8880970976406628</v>
       </c>
       <c r="D54" t="n">
         <v>0.8970726787970964</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9200661764825104</v>
+        <v>0.9218808902148552</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8970726787970964</v>
+        <v>0.8880970976406628</v>
       </c>
     </row>
     <row r="55">
@@ -42648,10 +42876,10 @@
         <v>0.1634490904080119</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1858583441781083</v>
+        <v>0.1807114358696059</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1824451017055913</v>
+        <v>0.1944568599107846</v>
       </c>
       <c r="D57" t="n">
         <v>0.2042065905877277</v>
@@ -42688,10 +42916,10 @@
         <v>0.01751224814039981</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02349800408263731</v>
+        <v>0.05224729520830031</v>
       </c>
       <c r="C59" t="n">
-        <v>0.05308865484933054</v>
+        <v>0.02586033523907059</v>
       </c>
       <c r="D59" t="n">
         <v>0.05672036374944127</v>
@@ -42708,10 +42936,10 @@
         <v>0.6339489880407453</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6457914759882593</v>
+        <v>0.6860999096652394</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6868438389652973</v>
+        <v>0.6432062426710992</v>
       </c>
       <c r="D60" t="n">
         <v>0.6976063741487682</v>
@@ -42728,10 +42956,10 @@
         <v>0.08771143966659828</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09453795083697732</v>
+        <v>0.0933073393364931</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09385652075516876</v>
+        <v>0.09638657072736394</v>
       </c>
       <c r="D61" t="n">
         <v>0.100288947343142</v>
@@ -42748,16 +42976,16 @@
         <v>0.005214125002386077</v>
       </c>
       <c r="B62" t="n">
-        <v>0.005491444614478815</v>
+        <v>0.015427496188716</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0155281579807858</v>
+        <v>0.005509046898489843</v>
       </c>
       <c r="D62" t="n">
         <v>0.0151157317634436</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0155281579807858</v>
+        <v>0.015427496188716</v>
       </c>
       <c r="F62" t="n">
         <v>0.005214125002386077</v>
@@ -42788,10 +43016,10 @@
         <v>0.09342273262880056</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1139947993871344</v>
+        <v>0.1379797097835511</v>
       </c>
       <c r="C64" t="n">
-        <v>0.139744944743396</v>
+        <v>0.1212885941767173</v>
       </c>
       <c r="D64" t="n">
         <v>0.1575676293913217</v>
@@ -42828,10 +43056,10 @@
         <v>0.1025269004259938</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1120360451657995</v>
+        <v>0.1192804263466637</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1200416166465745</v>
+        <v>0.1153055252983349</v>
       </c>
       <c r="D66" t="n">
         <v>0.1291405934828493</v>
@@ -42848,19 +43076,19 @@
         <v>0.6196899338921936</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6228593188621478</v>
+        <v>0.6367255573856362</v>
       </c>
       <c r="C67" t="n">
-        <v>0.633363404498254</v>
+        <v>0.6084275027588701</v>
       </c>
       <c r="D67" t="n">
         <v>0.6355921893756608</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6355921893756608</v>
+        <v>0.6367255573856362</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6196899338921936</v>
+        <v>0.6084275027588701</v>
       </c>
     </row>
     <row r="68">
@@ -42868,19 +43096,19 @@
         <v>0.8159804094100708</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8034571222183083</v>
+        <v>0.8547187933879042</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8515794855814658</v>
+        <v>0.7982262634667723</v>
       </c>
       <c r="D68" t="n">
         <v>0.8378307918085701</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8515794855814658</v>
+        <v>0.8547187933879042</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8034571222183083</v>
+        <v>0.7982262634667723</v>
       </c>
     </row>
     <row r="69">
@@ -42888,16 +43116,16 @@
         <v>0.04025235602613506</v>
       </c>
       <c r="B69" t="n">
-        <v>0.04930780929578281</v>
+        <v>0.04046911310097409</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04109918411959359</v>
+        <v>0.0529032524494383</v>
       </c>
       <c r="D69" t="n">
         <v>0.05014906144873064</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05014906144873064</v>
+        <v>0.0529032524494383</v>
       </c>
       <c r="F69" t="n">
         <v>0.04025235602613506</v>
@@ -42908,16 +43136,16 @@
         <v>0.0759626672659711</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09030188033304942</v>
+        <v>0.0790389339921312</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07986750288942931</v>
+        <v>0.09583612744856188</v>
       </c>
       <c r="D70" t="n">
         <v>0.09418100456205974</v>
       </c>
       <c r="E70" t="n">
-        <v>0.09418100456205974</v>
+        <v>0.09583612744856188</v>
       </c>
       <c r="F70" t="n">
         <v>0.0759626672659711</v>
@@ -42928,10 +43156,10 @@
         <v>0.1280940615730928</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1469391452836727</v>
+        <v>0.1421687653746083</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1424995425078386</v>
+        <v>0.1522669405232757</v>
       </c>
       <c r="D71" t="n">
         <v>0.1612497733133949</v>
@@ -42948,10 +43176,10 @@
         <v>0.07040684919858212</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07779549882348019</v>
+        <v>0.0799137343807842</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07951773237954302</v>
+        <v>0.0784599603942444</v>
       </c>
       <c r="D72" t="n">
         <v>0.08684639138413762</v>
@@ -42968,19 +43196,19 @@
         <v>0.9396067143095724</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9177986303699609</v>
+        <v>0.9414191505899558</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9396067143095724</v>
+        <v>0.9090769851072005</v>
       </c>
       <c r="D73" t="n">
         <v>0.9177986303699609</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9396067143095724</v>
+        <v>0.9414191505899558</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9177986303699609</v>
+        <v>0.9090769851072005</v>
       </c>
     </row>
     <row r="74">
@@ -42988,19 +43216,19 @@
         <v>0.7917590304207165</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7906438467945234</v>
+        <v>0.8122575303629007</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8101806635851853</v>
+        <v>0.7805274591288696</v>
       </c>
       <c r="D74" t="n">
         <v>0.8087465124683938</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8101806635851853</v>
+        <v>0.8122575303629007</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7906438467945234</v>
+        <v>0.7805274591288696</v>
       </c>
     </row>
     <row r="75">
@@ -43008,19 +43236,19 @@
         <v>0.8599327760004194</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8565860548518983</v>
+        <v>0.8616652080471596</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8599327760004194</v>
+        <v>0.8451905574173615</v>
       </c>
       <c r="D75" t="n">
         <v>0.8565860548518983</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8599327760004194</v>
+        <v>0.8616652080471596</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8565860548518983</v>
+        <v>0.8451905574173615</v>
       </c>
     </row>
     <row r="76">
@@ -43028,10 +43256,10 @@
         <v>0.2369912531647879</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2552559106423696</v>
+        <v>0.2629489473056855</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2649560268122223</v>
+        <v>0.2604895261988656</v>
       </c>
       <c r="D76" t="n">
         <v>0.2818290487450533</v>
@@ -43048,19 +43276,19 @@
         <v>0.8111100628727328</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7904617679590784</v>
+        <v>0.835903433489348</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8362115712996278</v>
+        <v>0.7901206499054698</v>
       </c>
       <c r="D77" t="n">
         <v>0.8153979954761896</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8362115712996278</v>
+        <v>0.835903433489348</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7904617679590784</v>
+        <v>0.7901206499054698</v>
       </c>
     </row>
     <row r="78">
@@ -43068,16 +43296,16 @@
         <v>0.1829329031773757</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2091797559468149</v>
+        <v>0.1879015109900626</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1886597889804349</v>
+        <v>0.2165022993527376</v>
       </c>
       <c r="D78" t="n">
         <v>0.2148689330640191</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2148689330640191</v>
+        <v>0.2165022993527376</v>
       </c>
       <c r="F78" t="n">
         <v>0.1829329031773757</v>
@@ -43088,10 +43316,10 @@
         <v>0.2993656227569759</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3266922643464347</v>
+        <v>0.3486565438315494</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3482796496838823</v>
+        <v>0.332945949491863</v>
       </c>
       <c r="D79" t="n">
         <v>0.3742769482304829</v>
@@ -43108,10 +43336,10 @@
         <v>0.01490013841442996</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02047603346850965</v>
+        <v>0.0279278992549092</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02853095854862976</v>
+        <v>0.0228099428602038</v>
       </c>
       <c r="D80" t="n">
         <v>0.03321679206871917</v>
@@ -43128,19 +43356,19 @@
         <v>0.8740545618939839</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8573819499674811</v>
+        <v>0.8947426919022559</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8923611428742605</v>
+        <v>0.8516131734620812</v>
       </c>
       <c r="D81" t="n">
         <v>0.8755361626189431</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8923611428742605</v>
+        <v>0.8947426919022559</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8573819499674811</v>
+        <v>0.8516131734620812</v>
       </c>
     </row>
     <row r="82">
@@ -43168,16 +43396,16 @@
         <v>0.1471759571524779</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1718898766347659</v>
+        <v>0.1477668192459854</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1492137279276433</v>
+        <v>0.1808180312376976</v>
       </c>
       <c r="D83" t="n">
         <v>0.1739142297060259</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1739142297060259</v>
+        <v>0.1808180312376976</v>
       </c>
       <c r="F83" t="n">
         <v>0.1471759571524779</v>
@@ -43208,10 +43436,10 @@
         <v>0.5032543120178228</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5216656224791437</v>
+        <v>0.5723296543349993</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5725820391231664</v>
+        <v>0.522641654426089</v>
       </c>
       <c r="D85" t="n">
         <v>0.587761075469488</v>
@@ -43228,10 +43456,10 @@
         <v>0.2682507970888805</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2848865670456574</v>
+        <v>0.3304658649946242</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3299174542713764</v>
+        <v>0.2869508411729354</v>
       </c>
       <c r="D86" t="n">
         <v>0.3454552148214819</v>
@@ -43248,19 +43476,19 @@
         <v>0.05776216098545453</v>
       </c>
       <c r="B87" t="n">
-        <v>0.05636862927385921</v>
+        <v>0.07146231637230938</v>
       </c>
       <c r="C87" t="n">
-        <v>0.07182835024314813</v>
+        <v>0.05562646685672287</v>
       </c>
       <c r="D87" t="n">
         <v>0.06989810569505081</v>
       </c>
       <c r="E87" t="n">
-        <v>0.07182835024314813</v>
+        <v>0.07146231637230938</v>
       </c>
       <c r="F87" t="n">
-        <v>0.05636862927385921</v>
+        <v>0.05562646685672287</v>
       </c>
     </row>
     <row r="88">
@@ -43308,10 +43536,10 @@
         <v>0.5423499082201837</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5539738932658436</v>
+        <v>0.5984000083105511</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5975838136237319</v>
+        <v>0.5556612752450063</v>
       </c>
       <c r="D90" t="n">
         <v>0.607748015379533</v>
@@ -43328,19 +43556,19 @@
         <v>0.8006308993998441</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7701518123881274</v>
+        <v>0.8024835828085826</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8006308993998441</v>
+        <v>0.7595122349497321</v>
       </c>
       <c r="D91" t="n">
         <v>0.7701518123881274</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8006308993998441</v>
+        <v>0.8024835828085826</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7701518123881274</v>
+        <v>0.7595122349497321</v>
       </c>
     </row>
     <row r="92">
@@ -43348,10 +43576,10 @@
         <v>0.1857698970395132</v>
       </c>
       <c r="B92" t="n">
-        <v>0.2039463531152181</v>
+        <v>0.1976637769324746</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1983374213693062</v>
+        <v>0.2086017647359372</v>
       </c>
       <c r="D92" t="n">
         <v>0.2162887195770179</v>
@@ -43368,19 +43596,19 @@
         <v>1.84830802381139e-05</v>
       </c>
       <c r="B93" t="n">
-        <v>1.512942856818509e-05</v>
+        <v>0.0006538473237624122</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0006395303091091946</v>
+        <v>1.568437092859371e-05</v>
       </c>
       <c r="D93" t="n">
         <v>0.0006320873712792165</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0006395303091091946</v>
+        <v>0.0006538473237624122</v>
       </c>
       <c r="F93" t="n">
-        <v>1.512942856818509e-05</v>
+        <v>1.568437092859371e-05</v>
       </c>
     </row>
     <row r="94">
@@ -43388,19 +43616,19 @@
         <v>0.04158277808864556</v>
       </c>
       <c r="B94" t="n">
-        <v>0.03872229255096304</v>
+        <v>0.04122775653745155</v>
       </c>
       <c r="C94" t="n">
-        <v>0.04173201304255429</v>
+        <v>0.03804652470576288</v>
       </c>
       <c r="D94" t="n">
         <v>0.03886126161002313</v>
       </c>
       <c r="E94" t="n">
-        <v>0.04173201304255429</v>
+        <v>0.04158277808864556</v>
       </c>
       <c r="F94" t="n">
-        <v>0.03872229255096304</v>
+        <v>0.03804652470576288</v>
       </c>
     </row>
     <row r="95">
@@ -43408,19 +43636,19 @@
         <v>0.4814681091999173</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4600913461342824</v>
+        <v>0.5302840598040123</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5261051956922109</v>
+        <v>0.4572399222343231</v>
       </c>
       <c r="D95" t="n">
         <v>0.5043623010972966</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5261051956922109</v>
+        <v>0.5302840598040123</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4600913461342824</v>
+        <v>0.4572399222343231</v>
       </c>
     </row>
     <row r="96">
@@ -43428,19 +43656,19 @@
         <v>0.01631076139693841</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01526335829482169</v>
+        <v>0.01767774544081716</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01783748713239985</v>
+        <v>0.01492952277938459</v>
       </c>
       <c r="D96" t="n">
         <v>0.01670908890688848</v>
       </c>
       <c r="E96" t="n">
-        <v>0.01783748713239985</v>
+        <v>0.01767774544081716</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01526335829482169</v>
+        <v>0.01492952277938459</v>
       </c>
     </row>
     <row r="97">
@@ -43468,10 +43696,10 @@
         <v>0.2344204365149563</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2501593795658589</v>
+        <v>0.2779372371820981</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2779776229518224</v>
+        <v>0.25443249846437</v>
       </c>
       <c r="D98" t="n">
         <v>0.2933015924669503</v>
@@ -43488,19 +43716,19 @@
         <v>0.3382377586154649</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3376361663865718</v>
+        <v>0.3568489766115717</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3582712291651667</v>
+        <v>0.3407374754958917</v>
       </c>
       <c r="D99" t="n">
         <v>0.3572770032184771</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3582712291651667</v>
+        <v>0.3572770032184771</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3376361663865718</v>
+        <v>0.3382377586154649</v>
       </c>
     </row>
     <row r="100">
@@ -43508,10 +43736,10 @@
         <v>0.1494971260001378</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1744473070280126</v>
+        <v>0.1600278920736759</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1615272349784641</v>
+        <v>0.1832385387560951</v>
       </c>
       <c r="D100" t="n">
         <v>0.1857898735053296</v>
@@ -43528,16 +43756,16 @@
         <v>0.1742657931327441</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2006687494207244</v>
+        <v>0.1798352398632373</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1809738249044202</v>
+        <v>0.2092826681743633</v>
       </c>
       <c r="D101" t="n">
         <v>0.2073326121498384</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2073326121498384</v>
+        <v>0.2092826681743633</v>
       </c>
       <c r="F101" t="n">
         <v>0.1742657931327441</v>
@@ -43548,10 +43776,10 @@
         <v>0.2272234453878069</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2502432894908947</v>
+        <v>0.257228832386409</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2580509773983958</v>
+        <v>0.2554198747583701</v>
       </c>
       <c r="D102" t="n">
         <v>0.279845810004639</v>
@@ -43568,10 +43796,10 @@
         <v>0.09311888843492473</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09687663800964771</v>
+        <v>0.09908921831717533</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09968354362895879</v>
+        <v>0.09830568773675347</v>
       </c>
       <c r="D103" t="n">
         <v>0.1033539739741733</v>
@@ -43588,19 +43816,19 @@
         <v>0.06550762622405899</v>
       </c>
       <c r="B104" t="n">
-        <v>0.06103961795428307</v>
+        <v>0.076285565859357</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07717066330583998</v>
+        <v>0.05993539155559772</v>
       </c>
       <c r="D104" t="n">
         <v>0.07193556571439599</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07717066330583998</v>
+        <v>0.076285565859357</v>
       </c>
       <c r="F104" t="n">
-        <v>0.06103961795428307</v>
+        <v>0.05993539155559772</v>
       </c>
     </row>
     <row r="105">
@@ -43608,10 +43836,10 @@
         <v>0.1730886773056922</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1762514692308478</v>
+        <v>0.1956613219557727</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1963325236760078</v>
+        <v>0.1761355650336178</v>
       </c>
       <c r="D105" t="n">
         <v>0.1987108604971231</v>
@@ -43628,19 +43856,19 @@
         <v>0.0195551093594519</v>
       </c>
       <c r="B106" t="n">
-        <v>0.02403802308862067</v>
+        <v>0.01922266446347918</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0195551093594519</v>
+        <v>0.02582830320271622</v>
       </c>
       <c r="D106" t="n">
         <v>0.02403802308862067</v>
       </c>
       <c r="E106" t="n">
-        <v>0.02403802308862067</v>
+        <v>0.02582830320271622</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0195551093594519</v>
+        <v>0.01922266446347918</v>
       </c>
     </row>
     <row r="107">
@@ -43648,19 +43876,19 @@
         <v>0.9394021546645999</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9175816612500224</v>
+        <v>0.9412146147864338</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9394021546645999</v>
+        <v>0.9088573576655354</v>
       </c>
       <c r="D107" t="n">
         <v>0.9175816612500224</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9394021546645999</v>
+        <v>0.9412146147864338</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9175816612500224</v>
+        <v>0.9088573576655354</v>
       </c>
     </row>
     <row r="108">
@@ -43668,10 +43896,10 @@
         <v>0.7449259376724725</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7532435096407722</v>
+        <v>0.78569158057389</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7844498149584458</v>
+        <v>0.7443950553607221</v>
       </c>
       <c r="D108" t="n">
         <v>0.7925071419133818</v>
@@ -43680,7 +43908,7 @@
         <v>0.7925071419133818</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7449259376724725</v>
+        <v>0.7443950553607221</v>
       </c>
     </row>
     <row r="109">
@@ -43708,19 +43936,19 @@
         <v>0.02386605797679843</v>
       </c>
       <c r="B110" t="n">
-        <v>0.02221803814056976</v>
+        <v>0.02564631230427635</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02595926576276511</v>
+        <v>0.02183276293008151</v>
       </c>
       <c r="D110" t="n">
         <v>0.02416725384918274</v>
       </c>
       <c r="E110" t="n">
-        <v>0.02595926576276511</v>
+        <v>0.02564631230427635</v>
       </c>
       <c r="F110" t="n">
-        <v>0.02221803814056976</v>
+        <v>0.02183276293008151</v>
       </c>
     </row>
     <row r="111">
@@ -43728,10 +43956,10 @@
         <v>0.01988545129072001</v>
       </c>
       <c r="B111" t="n">
-        <v>0.02054894002491418</v>
+        <v>0.02284217063943819</v>
       </c>
       <c r="C111" t="n">
-        <v>0.02259524924332365</v>
+        <v>0.02010906570092412</v>
       </c>
       <c r="D111" t="n">
         <v>0.02324089530992513</v>
@@ -43748,19 +43976,19 @@
         <v>0.9247495602570348</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9106980923045277</v>
+        <v>0.9265305417773948</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9247495602570348</v>
+        <v>0.9011744085578495</v>
       </c>
       <c r="D112" t="n">
         <v>0.9106980923045277</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9247495602570348</v>
+        <v>0.9265305417773948</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9106980923045277</v>
+        <v>0.9011744085578495</v>
       </c>
     </row>
     <row r="113">
@@ -43768,10 +43996,10 @@
         <v>0.3558670380053851</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3737644145714129</v>
+        <v>0.4023313326080996</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3974015185142397</v>
+        <v>0.3632955165710837</v>
       </c>
       <c r="D113" t="n">
         <v>0.4149909138983829</v>
@@ -43788,19 +44016,19 @@
         <v>0.001017762787389208</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0009810270814362421</v>
+        <v>0.001444302695730924</v>
       </c>
       <c r="C114" t="n">
-        <v>0.001415520947081616</v>
+        <v>0.0009239945411136193</v>
       </c>
       <c r="D114" t="n">
         <v>0.001376166202089648</v>
       </c>
       <c r="E114" t="n">
-        <v>0.001415520947081616</v>
+        <v>0.001444302695730924</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0009810270814362421</v>
+        <v>0.0009239945411136193</v>
       </c>
     </row>
     <row r="115">
@@ -43808,10 +44036,10 @@
         <v>0.2808955730184116</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2934237846920695</v>
+        <v>0.3277995878933803</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3264435255889253</v>
+        <v>0.2918193969510366</v>
       </c>
       <c r="D115" t="n">
         <v>0.338547202986397</v>
@@ -43848,10 +44076,10 @@
         <v>0.1131317619523628</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1271973289658874</v>
+        <v>0.1347668439443395</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1350676738121713</v>
+        <v>0.1306892428111271</v>
       </c>
       <c r="D117" t="n">
         <v>0.1481759041753088</v>
@@ -43868,10 +44096,10 @@
         <v>0.188432140755854</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2094023130047326</v>
+        <v>0.1992242880996418</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2007014461651016</v>
+        <v>0.2164160596899199</v>
       </c>
       <c r="D118" t="n">
         <v>0.2214922104101076</v>
@@ -43888,16 +44116,16 @@
         <v>0.1722505976091797</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1806262735514377</v>
+        <v>0.1793011041568784</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1802939731841486</v>
+        <v>0.1896454639121897</v>
       </c>
       <c r="D119" t="n">
         <v>0.1885161003691979</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1885161003691979</v>
+        <v>0.1896454639121897</v>
       </c>
       <c r="F119" t="n">
         <v>0.1722505976091797</v>
@@ -43908,10 +44136,10 @@
         <v>0.4694348711713463</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4900378133616979</v>
+        <v>0.5020214819109752</v>
       </c>
       <c r="C120" t="n">
-        <v>0.502505308827888</v>
+        <v>0.4919423472900633</v>
       </c>
       <c r="D120" t="n">
         <v>0.521965522466643</v>
@@ -43928,10 +44156,10 @@
         <v>0.6700115719284799</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6739790229235602</v>
+        <v>0.6947929222565121</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6946392011716523</v>
+        <v>0.6690663450836534</v>
       </c>
       <c r="D121" t="n">
         <v>0.6976554011769651</v>
@@ -43940,7 +44168,7 @@
         <v>0.6976554011769651</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6700115719284799</v>
+        <v>0.6690663450836534</v>
       </c>
     </row>
     <row r="122">
@@ -43948,10 +44176,10 @@
         <v>0.319019891897628</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3374221919580918</v>
+        <v>0.365530015929054</v>
       </c>
       <c r="C122" t="n">
-        <v>0.366900086798441</v>
+        <v>0.3416544195233777</v>
       </c>
       <c r="D122" t="n">
         <v>0.3826948439651136</v>
@@ -43968,10 +44196,10 @@
         <v>0.3421710782492816</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3641351277253101</v>
+        <v>0.3775095489402125</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3782294939380842</v>
+        <v>0.3679970588269525</v>
       </c>
       <c r="D123" t="n">
         <v>0.3984379937434435</v>
@@ -43988,19 +44216,19 @@
         <v>0.01142602760367052</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01064002945213323</v>
+        <v>0.01329571830924793</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01345833818019244</v>
+        <v>0.01045434339632259</v>
       </c>
       <c r="D124" t="n">
         <v>0.01253253707946721</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01345833818019244</v>
+        <v>0.01329571830924793</v>
       </c>
       <c r="F124" t="n">
-        <v>0.01064002945213323</v>
+        <v>0.01045434339632259</v>
       </c>
     </row>
     <row r="125">
@@ -44008,10 +44236,10 @@
         <v>0.3930274217485721</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4138475833043101</v>
+        <v>0.4451082648410285</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4405455345831603</v>
+        <v>0.4045588334166747</v>
       </c>
       <c r="D125" t="n">
         <v>0.4606975033074203</v>
@@ -44028,19 +44256,19 @@
         <v>0.05372084455194857</v>
       </c>
       <c r="B126" t="n">
-        <v>0.05029902754967638</v>
+        <v>0.058714871399126</v>
       </c>
       <c r="C126" t="n">
-        <v>0.05926208790543936</v>
+        <v>0.04926078992912207</v>
       </c>
       <c r="D126" t="n">
         <v>0.05551451475881859</v>
       </c>
       <c r="E126" t="n">
-        <v>0.05926208790543936</v>
+        <v>0.058714871399126</v>
       </c>
       <c r="F126" t="n">
-        <v>0.05029902754967638</v>
+        <v>0.04926078992912207</v>
       </c>
     </row>
     <row r="127">
@@ -44048,10 +44276,10 @@
         <v>0.2535139325147187</v>
       </c>
       <c r="B127" t="n">
-        <v>0.275194703085386</v>
+        <v>0.2800120052425237</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2816442752742085</v>
+        <v>0.2817834760636344</v>
       </c>
       <c r="D127" t="n">
         <v>0.3018133100828548</v>
@@ -44108,19 +44336,19 @@
         <v>0.7207331440940332</v>
       </c>
       <c r="B130" t="n">
-        <v>0.71807074289662</v>
+        <v>0.7286788848229302</v>
       </c>
       <c r="C130" t="n">
-        <v>0.725644669435668</v>
+        <v>0.7071530991957464</v>
       </c>
       <c r="D130" t="n">
         <v>0.7226444036738008</v>
       </c>
       <c r="E130" t="n">
-        <v>0.725644669435668</v>
+        <v>0.7286788848229302</v>
       </c>
       <c r="F130" t="n">
-        <v>0.71807074289662</v>
+        <v>0.7071530991957464</v>
       </c>
     </row>
     <row r="131">
@@ -44128,19 +44356,19 @@
         <v>0.8296867535698723</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8261684001256198</v>
+        <v>0.8451013199483549</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8427871009535823</v>
+        <v>0.8165490739640608</v>
       </c>
       <c r="D131" t="n">
         <v>0.8383675726491548</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8427871009535823</v>
+        <v>0.8451013199483549</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8261684001256198</v>
+        <v>0.8165490739640608</v>
       </c>
     </row>
     <row r="132">
@@ -44188,10 +44416,10 @@
         <v>0.751811104689583</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7580066965497287</v>
+        <v>0.778911609994215</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7781381078290419</v>
+        <v>0.7497290615353702</v>
       </c>
       <c r="D134" t="n">
         <v>0.7836955468199818</v>
@@ -44200,7 +44428,7 @@
         <v>0.7836955468199818</v>
       </c>
       <c r="F134" t="n">
-        <v>0.751811104689583</v>
+        <v>0.7497290615353702</v>
       </c>
     </row>
     <row r="135">
@@ -44228,10 +44456,10 @@
         <v>0.03040730893746254</v>
       </c>
       <c r="B136" t="n">
-        <v>0.03118693938958497</v>
+        <v>0.04204446486979409</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0420513872717392</v>
+        <v>0.03095166782163699</v>
       </c>
       <c r="D136" t="n">
         <v>0.04216336426723926</v>
@@ -44268,10 +44496,10 @@
         <v>0.1279407970936811</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1295898028163631</v>
+        <v>0.1483449623164278</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1482586760940215</v>
+        <v>0.1273868857538605</v>
       </c>
       <c r="D138" t="n">
         <v>0.1492130176704893</v>
@@ -44280,7 +44508,7 @@
         <v>0.1492130176704893</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1279407970936811</v>
+        <v>0.1273868857538605</v>
       </c>
     </row>
     <row r="139">
@@ -44288,19 +44516,19 @@
         <v>0.96051</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9399700000000001</v>
+        <v>0.9623199999999998</v>
       </c>
       <c r="C139" t="n">
-        <v>0.96051</v>
+        <v>0.9315199999999999</v>
       </c>
       <c r="D139" t="n">
         <v>0.9399700000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.96051</v>
+        <v>0.9623199999999998</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9399700000000001</v>
+        <v>0.9315199999999999</v>
       </c>
     </row>
     <row r="140">
@@ -44308,19 +44536,19 @@
         <v>0.9015641987580478</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8768862269982521</v>
+        <v>0.903437361242033</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9015641987580478</v>
+        <v>0.8674082962446208</v>
       </c>
       <c r="D140" t="n">
         <v>0.8768862269982521</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9015641987580478</v>
+        <v>0.903437361242033</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8768862269982521</v>
+        <v>0.8674082962446208</v>
       </c>
     </row>
     <row r="141">
@@ -44388,10 +44616,10 @@
         <v>0.3130220921118044</v>
       </c>
       <c r="B144" t="n">
-        <v>0.318297919784871</v>
+        <v>0.3233200854267346</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3226181960435152</v>
+        <v>0.3234771742233282</v>
       </c>
       <c r="D144" t="n">
         <v>0.3278308381597125</v>
@@ -44408,10 +44636,10 @@
         <v>0.07961067487749646</v>
       </c>
       <c r="B145" t="n">
-        <v>0.08259975250933142</v>
+        <v>0.08385983471051703</v>
       </c>
       <c r="C145" t="n">
-        <v>0.08480377094487299</v>
+        <v>0.08409326296555053</v>
       </c>
       <c r="D145" t="n">
         <v>0.08743561471982472</v>
@@ -44428,10 +44656,10 @@
         <v>0.02167348980010511</v>
       </c>
       <c r="B146" t="n">
-        <v>0.02313672503627034</v>
+        <v>0.02506156338107653</v>
       </c>
       <c r="C146" t="n">
-        <v>0.02545300020116119</v>
+        <v>0.0238665290327714</v>
       </c>
       <c r="D146" t="n">
         <v>0.02669003776801761</v>
@@ -44488,10 +44716,10 @@
         <v>0.312406917876242</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3280355964362032</v>
+        <v>0.3268408814023719</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3288104473517482</v>
+        <v>0.3318548168733559</v>
       </c>
       <c r="D149" t="n">
         <v>0.3435942135318944</v>
@@ -44528,16 +44756,16 @@
         <v>9.793738426053467e-05</v>
       </c>
       <c r="B151" t="n">
-        <v>8.016719292648905e-05</v>
+        <v>9.801685738814669e-05</v>
       </c>
       <c r="C151" t="n">
-        <v>9.793738426053467e-05</v>
+        <v>8.310769864813346e-05</v>
       </c>
       <c r="D151" t="n">
         <v>8.016719292648905e-05</v>
       </c>
       <c r="E151" t="n">
-        <v>9.793738426053467e-05</v>
+        <v>9.801685738814669e-05</v>
       </c>
       <c r="F151" t="n">
         <v>8.016719292648905e-05</v>
@@ -44548,10 +44776,10 @@
         <v>0.2542251238915246</v>
       </c>
       <c r="B152" t="n">
-        <v>0.2846904150113412</v>
+        <v>0.2756320977825669</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2768948327739956</v>
+        <v>0.2942676260093278</v>
       </c>
       <c r="D152" t="n">
         <v>0.306340478312405</v>
@@ -44568,19 +44796,19 @@
         <v>0.9341163533196613</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9122058932493545</v>
+        <v>0.935928545240819</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9341163533196613</v>
+        <v>0.9033966728260827</v>
       </c>
       <c r="D153" t="n">
         <v>0.9122058932493545</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9341163533196613</v>
+        <v>0.935928545240819</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9122058932493545</v>
+        <v>0.9033966728260827</v>
       </c>
     </row>
     <row r="154">
@@ -44588,19 +44816,19 @@
         <v>0.7605103744380584</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7479431824871112</v>
+        <v>0.7912144981985103</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7922091350992678</v>
+        <v>0.7492416689599886</v>
       </c>
       <c r="D154" t="n">
         <v>0.7794332226239603</v>
       </c>
       <c r="E154" t="n">
-        <v>0.7922091350992678</v>
+        <v>0.7912144981985103</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7479431824871112</v>
+        <v>0.7492416689599886</v>
       </c>
     </row>
     <row r="155">
@@ -44608,10 +44836,10 @@
         <v>0.3257868248602173</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3504388346776059</v>
+        <v>0.3377455209947288</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3390864275743692</v>
+        <v>0.3565838779499907</v>
       </c>
       <c r="D155" t="n">
         <v>0.3633107930918594</v>
@@ -44648,10 +44876,10 @@
         <v>0.3234797903358962</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3452521074811188</v>
+        <v>0.3509097663160728</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3514443226037578</v>
+        <v>0.3490096672546552</v>
       </c>
       <c r="D157" t="n">
         <v>0.3722124707654026</v>
@@ -44688,10 +44916,10 @@
         <v>0.02481763550790636</v>
       </c>
       <c r="B159" t="n">
-        <v>0.02777950092132323</v>
+        <v>0.02561005323130749</v>
       </c>
       <c r="C159" t="n">
-        <v>0.02560904007451435</v>
+        <v>0.02833842774985173</v>
       </c>
       <c r="D159" t="n">
         <v>0.02856569448369389</v>

--- a/Data/Potential/AMOS.xlsx
+++ b/Data/Potential/AMOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="473" visibility="visible" windowHeight="7760" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="769" visibility="visible" windowHeight="7760" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -41091,25 +41091,33 @@
           <t>sim6_mm</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>SCom_mm</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.95601</v>
+        <v>0.91925</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8597900000000001</v>
+        <v>0.82294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7401</v>
+        <v>0.70202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.84834</v>
+        <v>0.81168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9260699999999999</v>
+        <v>0.8894300000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.73414</v>
+        <v>0.69738</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.96324</v>
       </c>
     </row>
     <row r="3">
@@ -41141,6 +41149,11 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>sim6_xx</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SCom_xx</t>
         </is>
       </c>
     </row>
@@ -41195,7 +41208,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>sim6_xx</t>
+          <t>sim6_xxSCom_mx</t>
         </is>
       </c>
     </row>
@@ -41250,7 +41263,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>sim6_xm</t>
+          <t>sim6_xmSCom_xm</t>
         </is>
       </c>
     </row>
@@ -41319,25 +41332,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.91925</v>
+        <v>0.95601</v>
       </c>
       <c r="B11" t="n">
-        <v>0.82294</v>
+        <v>0.8597900000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.70202</v>
+        <v>0.7401</v>
       </c>
       <c r="D11" t="n">
-        <v>0.81168</v>
+        <v>0.84834</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8894300000000001</v>
+        <v>0.9260699999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.69738</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.96324</v>
+        <v>0.73414</v>
       </c>
     </row>
     <row r="12">
@@ -41793,42 +41803,42 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1791095743962186</v>
+        <v>0.2171210954757775</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1882830561033638</v>
+        <v>0.2245523423600815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2024023011293328</v>
+        <v>0.2683088305878641</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2069191971925434</v>
+        <v>0.2647113401557422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2069191971925434</v>
+        <v>0.2683088305878641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1791095743962186</v>
+        <v>0.2171210954757775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1111659181683619</v>
+        <v>0.1351014145371207</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1211901519745822</v>
+        <v>0.1440285795049654</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1280969083876283</v>
+        <v>0.1695976284780036</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1352629658228207</v>
+        <v>0.171654133257115</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1352629658228207</v>
+        <v>0.171654133257115</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1111659181683619</v>
+        <v>0.1351014145371207</v>
       </c>
     </row>
     <row r="5">
@@ -41873,162 +41883,162 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1958880644906695</v>
+        <v>0.2324984997772553</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2198586372441348</v>
+        <v>0.2547910556183701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2309031901614757</v>
+        <v>0.29438043766901</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2461499079261595</v>
+        <v>0.301811861195509</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2461499079261595</v>
+        <v>0.301811861195509</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1958880644906695</v>
+        <v>0.2324984997772553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.753284553890906</v>
+        <v>0.7900445765613081</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7736052119409251</v>
+        <v>0.8086803614527194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7518929599082349</v>
+        <v>0.8156295704993323</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7803596577369147</v>
+        <v>0.8362490414069818</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7803596577369147</v>
+        <v>0.8362490414069818</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7518929599082349</v>
+        <v>0.7900445765613081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9134030745320969</v>
+        <v>0.9528930745320969</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9152185648497506</v>
+        <v>0.9528985648497507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8809431937750207</v>
+        <v>0.9494131937750208</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8900053641933974</v>
+        <v>0.9500453641933974</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9152185648497506</v>
+        <v>0.9528985648497507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8809431937750207</v>
+        <v>0.9494131937750208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1419960100629397</v>
+        <v>0.1734242051913721</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159278868661506</v>
+        <v>0.1892665716860523</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1720482378864356</v>
+        <v>0.2265402237168678</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1835441117796816</v>
+        <v>0.2313270653251635</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1835441117796816</v>
+        <v>0.2313270653251635</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1419960100629397</v>
+        <v>0.1734242051913721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.453256726682886</v>
+        <v>0.4849500321252108</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4585025994809304</v>
+        <v>0.4887432616502593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4560287571181687</v>
+        <v>0.5109804062353118</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4705278337369732</v>
+        <v>0.5187138570025387</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4705278337369732</v>
+        <v>0.5187138570025387</v>
       </c>
       <c r="F11" t="n">
-        <v>0.453256726682886</v>
+        <v>0.4849500321252108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01128101504229527</v>
+        <v>0.03600739916311298</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01155565204845588</v>
+        <v>0.03514871747444756</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01644026947188089</v>
+        <v>0.0593122755684215</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0154637179703877</v>
+        <v>0.05305733920649545</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01644026947188089</v>
+        <v>0.0593122755684215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01128101504229527</v>
+        <v>0.03514871747444756</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.303938168547084</v>
+        <v>0.343428168547084</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3277563672360311</v>
+        <v>0.3654363672360311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.341419024621707</v>
+        <v>0.4098890246217071</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3578246896874112</v>
+        <v>0.4178646896874112</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3578246896874112</v>
+        <v>0.4178646896874112</v>
       </c>
       <c r="F13" t="n">
-        <v>0.303938168547084</v>
+        <v>0.343428168547084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.943206708083296</v>
+        <v>0.982696708083296</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9450187247839854</v>
+        <v>0.9826987247839855</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9129421532474733</v>
+        <v>0.9814121532474733</v>
       </c>
       <c r="D14" t="n">
-        <v>0.921617015374363</v>
+        <v>0.981657015374363</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9450187247839854</v>
+        <v>0.9826987247839855</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9129421532474733</v>
+        <v>0.9814121532474733</v>
       </c>
     </row>
     <row r="15">
@@ -42053,42 +42063,42 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.03296828964954145</v>
+        <v>0.05841150836211287</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04103991893214771</v>
+        <v>0.06531696327475828</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0396375990733706</v>
+        <v>0.08375249360995621</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04640743909756202</v>
+        <v>0.08509092482819733</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04640743909756202</v>
+        <v>0.08509092482819733</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03296828964954145</v>
+        <v>0.05841150836211287</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1308842739732018</v>
+        <v>0.1475625606320575</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1337567234240957</v>
+        <v>0.1496705710135026</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1591841833659472</v>
+        <v>0.1881019419765283</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1558366159264048</v>
+        <v>0.1811940312466806</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1591841833659472</v>
+        <v>0.1881019419765283</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1308842739732018</v>
+        <v>0.1475625606320575</v>
       </c>
     </row>
     <row r="18">
@@ -42113,22 +42123,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1833174089502538</v>
+        <v>0.203984198823144</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2253482904784578</v>
+        <v>0.2450678306762421</v>
       </c>
       <c r="C19" t="n">
-        <v>0.197168424800706</v>
+        <v>0.233001676322529</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2368599473682348</v>
+        <v>0.2682814227789293</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2368599473682348</v>
+        <v>0.2682814227789293</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1833174089502538</v>
+        <v>0.203984198823144</v>
       </c>
     </row>
     <row r="20">
@@ -42153,22 +42163,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2811163016982371</v>
+        <v>0.3206063016982371</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3125107485647187</v>
+        <v>0.3501907485647187</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3085332422308557</v>
+        <v>0.3770032422308557</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3340062528456982</v>
+        <v>0.3940462528456982</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3340062528456982</v>
+        <v>0.3940462528456982</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2811163016982371</v>
+        <v>0.3206063016982371</v>
       </c>
     </row>
     <row r="22">
@@ -42213,42 +42223,42 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1335064633830877</v>
+        <v>0.1580862222465012</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1722635676720433</v>
+        <v>0.1957167283196357</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1518346564852488</v>
+        <v>0.1944524354008711</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1853048085913482</v>
+        <v>0.2226755029990299</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1853048085913482</v>
+        <v>0.2226755029990299</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1335064633830877</v>
+        <v>0.1580862222465012</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.01414939510483664</v>
+        <v>0.03296633703330458</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01733397816735102</v>
+        <v>0.0352884570699763</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01651089298661771</v>
+        <v>0.04913677330675445</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01927213137412485</v>
+        <v>0.04788112588881757</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01927213137412485</v>
+        <v>0.04913677330675445</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01414939510483664</v>
+        <v>0.03296633703330458</v>
       </c>
     </row>
     <row r="26">
@@ -42293,22 +42303,22 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.06111286411701031</v>
+        <v>0.06516360588063433</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06222317020388816</v>
+        <v>0.06608824869599636</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05591574688711467</v>
+        <v>0.06293915252285376</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05865152748007774</v>
+        <v>0.0648102141219614</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06222317020388816</v>
+        <v>0.06608824869599636</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05591574688711467</v>
+        <v>0.06293915252285376</v>
       </c>
     </row>
     <row r="29">
@@ -42333,62 +42343,62 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.3955722409437365</v>
+        <v>0.431357724024523</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4290529615580803</v>
+        <v>0.4631982389063719</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4141230339028249</v>
+        <v>0.4761699325237785</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4463967424570382</v>
+        <v>0.5008044508432227</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4463967424570382</v>
+        <v>0.5008044508432227</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3955722409437365</v>
+        <v>0.431357724024523</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1511720835217887</v>
+        <v>0.1906620835217887</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1608866514682442</v>
+        <v>0.1985666514682442</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1620436017039498</v>
+        <v>0.2305136017039498</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1667489218201899</v>
+        <v>0.2267889218201899</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1667489218201899</v>
+        <v>0.2305136017039498</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1511720835217887</v>
+        <v>0.1906620835217887</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.181682372694607</v>
+        <v>0.2086644160783191</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1929221332635581</v>
+        <v>0.2186674711895716</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2091170827924573</v>
+        <v>0.2559000787530238</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2142533646199059</v>
+        <v>0.2552764561559422</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2142533646199059</v>
+        <v>0.2559000787530238</v>
       </c>
       <c r="F32" t="n">
-        <v>0.181682372694607</v>
+        <v>0.2086644160783191</v>
       </c>
     </row>
     <row r="33">
@@ -42493,122 +42503,122 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4389716208050481</v>
+        <v>0.4784616208050482</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5044101846073523</v>
+        <v>0.5420901846073524</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4544403063496717</v>
+        <v>0.5229103063496717</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5167065979674519</v>
+        <v>0.5767465979674519</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5167065979674519</v>
+        <v>0.5767465979674519</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4389716208050481</v>
+        <v>0.4784616208050482</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.2284820796182316</v>
+        <v>0.2679720796182316</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2455293821554913</v>
+        <v>0.2832093821554914</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2687580052075147</v>
+        <v>0.3372280052075147</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2764287401757956</v>
+        <v>0.3364687401757955</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2764287401757956</v>
+        <v>0.3372280052075147</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2284820796182316</v>
+        <v>0.2679720796182316</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.6794475959542192</v>
+        <v>0.7189375959542192</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7054237294001503</v>
+        <v>0.7431037294001503</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6715099359795583</v>
+        <v>0.7399799359795584</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7083996573445968</v>
+        <v>0.7684396573445967</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7083996573445968</v>
+        <v>0.7684396573445967</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6715099359795583</v>
+        <v>0.7189375959542192</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7883766247773972</v>
+        <v>0.8278666247773973</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8059430226892943</v>
+        <v>0.8436230226892943</v>
       </c>
       <c r="C41" t="n">
-        <v>0.76609555605923</v>
+        <v>0.83456555605923</v>
       </c>
       <c r="D41" t="n">
-        <v>0.786661448537202</v>
+        <v>0.846701448537202</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8059430226892943</v>
+        <v>0.846701448537202</v>
       </c>
       <c r="F41" t="n">
-        <v>0.76609555605923</v>
+        <v>0.8278666247773973</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.96051</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9623199999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9315199999999999</v>
+        <v>0.9999899999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9399700000000001</v>
+        <v>1.00001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9623199999999998</v>
+        <v>1.00001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9315199999999999</v>
+        <v>0.9999899999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.05419666770804497</v>
+        <v>0.06911989446766892</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07393905848633796</v>
+        <v>0.08817828827369248</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04958915151278066</v>
+        <v>0.07546388780630943</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06998644620082145</v>
+        <v>0.09267549493842139</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07393905848633796</v>
+        <v>0.09267549493842139</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04958915151278066</v>
+        <v>0.06911989446766892</v>
       </c>
     </row>
     <row r="44">
@@ -42633,62 +42643,62 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1765234532385889</v>
+        <v>0.2003271349820046</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1861164656913881</v>
+        <v>0.20882912023917</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1939911172603033</v>
+        <v>0.2352632896829843</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2004054012173848</v>
+        <v>0.2365961596847102</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2004054012173848</v>
+        <v>0.2365961596847102</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1765234532385889</v>
+        <v>0.2003271349820046</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1120512734961021</v>
+        <v>0.1335163564370817</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1145970190397593</v>
+        <v>0.135078263031051</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1359001709237401</v>
+        <v>0.1731175482083405</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1333221375401252</v>
+        <v>0.1659573256833618</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1359001709237401</v>
+        <v>0.1731175482083405</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1120512734961021</v>
+        <v>0.1335163564370817</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1369869116256883</v>
+        <v>0.1640400460432933</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1505427207751941</v>
+        <v>0.1763558913210376</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1468247622519083</v>
+        <v>0.1937310198759503</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1582040416464535</v>
+        <v>0.1993352189174843</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1582040416464535</v>
+        <v>0.1993352189174843</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1369869116256883</v>
+        <v>0.1640400460432933</v>
       </c>
     </row>
     <row r="48">
@@ -42733,102 +42743,102 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.7105821191199788</v>
+        <v>0.7500721191199788</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7543993792377789</v>
+        <v>0.7920793792377789</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7107890152324471</v>
+        <v>0.7792590152324471</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7590228039738669</v>
+        <v>0.8190628039738669</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7590228039738669</v>
+        <v>0.8190628039738669</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7105821191199788</v>
+        <v>0.7500721191199788</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>0.002975489875993461</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.002839110117179884</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.005159072975671621</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.004523889900092363</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.005159072975671621</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.002839110117179884</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.2104655151961633</v>
+        <v>0.2346853757004939</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2352852000901514</v>
+        <v>0.2583949580998545</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2282322247016497</v>
+        <v>0.2702259914459271</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2498325594344871</v>
+        <v>0.2866560698087593</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2498325594344871</v>
+        <v>0.2866560698087593</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2104655151961633</v>
+        <v>0.2346853757004939</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.96051</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9623199999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9315199999999999</v>
+        <v>0.9999899999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9399700000000001</v>
+        <v>1.00001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9623199999999998</v>
+        <v>1.00001</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9315199999999999</v>
+        <v>0.9999899999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9200661764825104</v>
+        <v>0.958751581320846</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9218808902148552</v>
+        <v>0.9587931731803778</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8880970976406628</v>
+        <v>0.9551720449508893</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8970726787970964</v>
+        <v>0.9558893844565969</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9218808902148552</v>
+        <v>0.9587931731803778</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8880970976406628</v>
+        <v>0.9551720449508893</v>
       </c>
     </row>
     <row r="55">
@@ -42873,22 +42883,22 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1634490904080119</v>
+        <v>0.2011303343926099</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1807114358696059</v>
+        <v>0.2166655830800302</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1944568599107846</v>
+        <v>0.2597907362244191</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2042065905877277</v>
+        <v>0.2614965852404313</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2042065905877277</v>
+        <v>0.2614965852404313</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1634490904080119</v>
+        <v>0.2011303343926099</v>
       </c>
     </row>
     <row r="58">
@@ -42913,62 +42923,62 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.01751224814039981</v>
+        <v>0.02586547851775218</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05224729520830031</v>
+        <v>0.06021766037970161</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02586033523907059</v>
+        <v>0.04034363946640198</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05672036374944127</v>
+        <v>0.0694204891446359</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05672036374944127</v>
+        <v>0.0694204891446359</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01751224814039981</v>
+        <v>0.02586547851775218</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.6339489880407453</v>
+        <v>0.6734389880407453</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6860999096652394</v>
+        <v>0.7237799096652394</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6432062426710992</v>
+        <v>0.7116762426710992</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6976063741487682</v>
+        <v>0.7576463741487682</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6976063741487682</v>
+        <v>0.7576463741487682</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6339489880407453</v>
+        <v>0.6734389880407453</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.08771143966659828</v>
+        <v>0.0956544155358602</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0933073393364931</v>
+        <v>0.1008862537642923</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09638657072736394</v>
+        <v>0.1101585524383886</v>
       </c>
       <c r="D61" t="n">
-        <v>0.100288947343142</v>
+        <v>0.1123653279759727</v>
       </c>
       <c r="E61" t="n">
-        <v>0.100288947343142</v>
+        <v>0.1123653279759727</v>
       </c>
       <c r="F61" t="n">
-        <v>0.08771143966659828</v>
+        <v>0.0956544155358602</v>
       </c>
     </row>
     <row r="62">
@@ -43013,22 +43023,22 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.09342273262880056</v>
+        <v>0.1179151087630541</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1379797097835511</v>
+        <v>0.1613494928359358</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1212885941767173</v>
+        <v>0.1637548639643176</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1575676293913217</v>
+        <v>0.194805468416406</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1575676293913217</v>
+        <v>0.194805468416406</v>
       </c>
       <c r="F64" t="n">
-        <v>0.09342273262880056</v>
+        <v>0.1179151087630541</v>
       </c>
     </row>
     <row r="65">
@@ -43053,322 +43063,322 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1025269004259938</v>
+        <v>0.1188289970304994</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1192804263466637</v>
+        <v>0.1348353263228038</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1153055252983349</v>
+        <v>0.1435710242730246</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1291405934828493</v>
+        <v>0.1539260551221128</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1291405934828493</v>
+        <v>0.1539260551221128</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1025269004259938</v>
+        <v>0.1188289970304994</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.6196899338921936</v>
+        <v>0.6591799338921936</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6367255573856362</v>
+        <v>0.6744055573856362</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6084275027588701</v>
+        <v>0.6768975027588702</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6355921893756608</v>
+        <v>0.6956321893756607</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6367255573856362</v>
+        <v>0.6956321893756607</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6084275027588701</v>
+        <v>0.6591799338921936</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8159804094100708</v>
+        <v>0.8554704094100708</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8547187933879042</v>
+        <v>0.8923987933879043</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7982262634667723</v>
+        <v>0.8666962634667723</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8378307918085701</v>
+        <v>0.8978707918085701</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8547187933879042</v>
+        <v>0.8978707918085701</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7982262634667723</v>
+        <v>0.8554704094100708</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.04025235602613506</v>
+        <v>0.06481582319428147</v>
       </c>
       <c r="B69" t="n">
-        <v>0.04046911310097409</v>
+        <v>0.06390672877318876</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0529032524494383</v>
+        <v>0.09549278390051415</v>
       </c>
       <c r="D69" t="n">
-        <v>0.05014906144873064</v>
+        <v>0.08749498620880941</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0529032524494383</v>
+        <v>0.09549278390051415</v>
       </c>
       <c r="F69" t="n">
-        <v>0.04025235602613506</v>
+        <v>0.06390672877318876</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0759626672659711</v>
+        <v>0.1024485544756388</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0790389339921312</v>
+        <v>0.1043108567589147</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09583612744856188</v>
+        <v>0.141758859716122</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09418100456205974</v>
+        <v>0.1344497477392806</v>
       </c>
       <c r="E70" t="n">
-        <v>0.09583612744856188</v>
+        <v>0.141758859716122</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0759626672659711</v>
+        <v>0.1024485544756388</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1280940615730928</v>
+        <v>0.1582618719131319</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1421687653746083</v>
+        <v>0.1709538525767524</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1522669405232757</v>
+        <v>0.2045735997783396</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1612497733133949</v>
+        <v>0.2071164568488708</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1612497733133949</v>
+        <v>0.2071164568488708</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1280940615730928</v>
+        <v>0.1582618719131319</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.07040684919858212</v>
+        <v>0.07837055995272947</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0799137343807842</v>
+        <v>0.08751243332270044</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0784599603942444</v>
+        <v>0.09226789342378275</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08684639138413762</v>
+        <v>0.0989542970230084</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08684639138413762</v>
+        <v>0.0989542970230084</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07040684919858212</v>
+        <v>0.07837055995272947</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9396067143095724</v>
+        <v>0.9732565042471589</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9414191505899558</v>
+        <v>0.9735266229841888</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9090769851072005</v>
+        <v>0.9674208979212432</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9177986303699609</v>
+        <v>0.9689592631340199</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9414191505899558</v>
+        <v>0.9735266229841888</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9090769851072005</v>
+        <v>0.9674208979212432</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.7917590304207165</v>
+        <v>0.8181516106483997</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8122575303629007</v>
+        <v>0.8374404228161574</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7805274591288696</v>
+        <v>0.8262884104631181</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8087465124683938</v>
+        <v>0.8488733931184343</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8122575303629007</v>
+        <v>0.8488733931184343</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7805274591288696</v>
+        <v>0.8181516106483997</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8599327760004194</v>
+        <v>0.8994227760004194</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8616652080471596</v>
+        <v>0.8993452080471597</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8451905574173615</v>
+        <v>0.9136605574173615</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8565860548518983</v>
+        <v>0.9166260548518983</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8616652080471596</v>
+        <v>0.9166260548518983</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8451905574173615</v>
+        <v>0.8993452080471597</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.2369912531647879</v>
+        <v>0.2705077474138251</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2629489473056855</v>
+        <v>0.2949292335377373</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2604895261988656</v>
+        <v>0.3186023233938917</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2818290487450533</v>
+        <v>0.3327870207559978</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2818290487450533</v>
+        <v>0.3327870207559978</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2369912531647879</v>
+        <v>0.2705077474138251</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8111100628727328</v>
+        <v>0.8506000628727328</v>
       </c>
       <c r="B77" t="n">
-        <v>0.835903433489348</v>
+        <v>0.8735834334893481</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7901206499054698</v>
+        <v>0.8585906499054698</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8153979954761896</v>
+        <v>0.8754379954761896</v>
       </c>
       <c r="E77" t="n">
-        <v>0.835903433489348</v>
+        <v>0.8754379954761896</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7901206499054698</v>
+        <v>0.8506000628727328</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1829329031773757</v>
+        <v>0.196289165064943</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1879015109900626</v>
+        <v>0.2006455967819981</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2165022993527376</v>
+        <v>0.2396601431471598</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2148689330640191</v>
+        <v>0.2351755920594493</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2165022993527376</v>
+        <v>0.2396601431471598</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1829329031773757</v>
+        <v>0.196289165064943</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.2993656227569759</v>
+        <v>0.326217332578551</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3486565438315494</v>
+        <v>0.3742775219545412</v>
       </c>
       <c r="C79" t="n">
-        <v>0.332945949491863</v>
+        <v>0.3795029657360576</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3742769482304829</v>
+        <v>0.415101882585696</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3742769482304829</v>
+        <v>0.415101882585696</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2993656227569759</v>
+        <v>0.326217332578551</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.01490013841442996</v>
+        <v>0.01609983350630629</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0279278992549092</v>
+        <v>0.02907260705591959</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0228099428602038</v>
+        <v>0.02489004220030945</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03321679206871917</v>
+        <v>0.03504079038009559</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03321679206871917</v>
+        <v>0.03504079038009559</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01490013841442996</v>
+        <v>0.01609983350630629</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8740545618939839</v>
+        <v>0.9135445618939839</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8947426919022559</v>
+        <v>0.9324226919022559</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8516131734620812</v>
+        <v>0.9200831734620812</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8755361626189431</v>
+        <v>0.9355761626189431</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8947426919022559</v>
+        <v>0.9355761626189431</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8516131734620812</v>
+        <v>0.9135445618939839</v>
       </c>
     </row>
     <row r="82">
@@ -43393,22 +43403,22 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.1471759571524779</v>
+        <v>0.1701620920061249</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1477668192459854</v>
+        <v>0.1696993986657226</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1808180312376976</v>
+        <v>0.22067269453041</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1739142297060259</v>
+        <v>0.208862002220915</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1808180312376976</v>
+        <v>0.22067269453041</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1471759571524779</v>
+        <v>0.1696993986657226</v>
       </c>
     </row>
     <row r="84">
@@ -43433,62 +43443,62 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.5032543120178228</v>
+        <v>0.5427443120178228</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5723296543349993</v>
+        <v>0.6100096543349993</v>
       </c>
       <c r="C85" t="n">
-        <v>0.522641654426089</v>
+        <v>0.591111654426089</v>
       </c>
       <c r="D85" t="n">
-        <v>0.587761075469488</v>
+        <v>0.647801075469488</v>
       </c>
       <c r="E85" t="n">
-        <v>0.587761075469488</v>
+        <v>0.647801075469488</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5032543120178228</v>
+        <v>0.5427443120178228</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.2682507970888805</v>
+        <v>0.3065229852927135</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3304658649946242</v>
+        <v>0.3669838708573851</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2869508411729354</v>
+        <v>0.3533093300642103</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3454552148214819</v>
+        <v>0.403643672146327</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3454552148214819</v>
+        <v>0.403643672146327</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2682507970888805</v>
+        <v>0.3065229852927135</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.05776216098545453</v>
+        <v>0.07345257848583966</v>
       </c>
       <c r="B87" t="n">
-        <v>0.07146231637230938</v>
+        <v>0.08643357318199568</v>
       </c>
       <c r="C87" t="n">
-        <v>0.05562646685672287</v>
+        <v>0.08283140193525847</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06989810569505081</v>
+        <v>0.09375357965613271</v>
       </c>
       <c r="E87" t="n">
-        <v>0.07146231637230938</v>
+        <v>0.09375357965613271</v>
       </c>
       <c r="F87" t="n">
-        <v>0.05562646685672287</v>
+        <v>0.07345257848583966</v>
       </c>
     </row>
     <row r="88">
@@ -43533,82 +43543,82 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.5423499082201837</v>
+        <v>0.5818399082201837</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5984000083105511</v>
+        <v>0.6360800083105511</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5556612752450063</v>
+        <v>0.6241312752450063</v>
       </c>
       <c r="D90" t="n">
-        <v>0.607748015379533</v>
+        <v>0.667788015379533</v>
       </c>
       <c r="E90" t="n">
-        <v>0.607748015379533</v>
+        <v>0.667788015379533</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5423499082201837</v>
+        <v>0.5818399082201837</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8006308993998441</v>
+        <v>0.8401208993998441</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8024835828085826</v>
+        <v>0.8401635828085826</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7595122349497321</v>
+        <v>0.8279822349497321</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7701518123881274</v>
+        <v>0.8301918123881273</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8024835828085826</v>
+        <v>0.8401635828085826</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7595122349497321</v>
+        <v>0.8279822349497321</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.1857698970395132</v>
+        <v>0.2252598970395132</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1976637769324746</v>
+        <v>0.2353437769324746</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2086017647359372</v>
+        <v>0.2770717647359372</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2162887195770179</v>
+        <v>0.2763287195770179</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2162887195770179</v>
+        <v>0.2770717647359372</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1857698970395132</v>
+        <v>0.2252598970395132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.84830802381139e-05</v>
+        <v>0.003490129130275983</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0006538473237624122</v>
+        <v>0.00396637260017231</v>
       </c>
       <c r="C93" t="n">
-        <v>1.568437092859371e-05</v>
+        <v>0.00603502103960656</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0006320873712792165</v>
+        <v>0.005910325630187134</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0006538473237624122</v>
+        <v>0.00603502103960656</v>
       </c>
       <c r="F93" t="n">
-        <v>1.568437092859371e-05</v>
+        <v>0.003490129130275983</v>
       </c>
     </row>
     <row r="94">
@@ -43633,22 +43643,22 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.4814681091999173</v>
+        <v>0.5126430425201062</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5302840598040123</v>
+        <v>0.5600301091204143</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4572399222343231</v>
+        <v>0.5112927883886238</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5043623010972966</v>
+        <v>0.5517601992118608</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5302840598040123</v>
+        <v>0.5600301091204143</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4572399222343231</v>
+        <v>0.5112927883886238</v>
       </c>
     </row>
     <row r="96">
@@ -43693,122 +43703,122 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.2344204365149563</v>
+        <v>0.2717728844677995</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2779372371820981</v>
+        <v>0.3135776585258087</v>
       </c>
       <c r="C98" t="n">
-        <v>0.25443249846437</v>
+        <v>0.3191962895844302</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2933015924669503</v>
+        <v>0.3500916905953045</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2933015924669503</v>
+        <v>0.3500916905953045</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2344204365149563</v>
+        <v>0.2717728844677995</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.3382377586154649</v>
+        <v>0.3650909495002461</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3568489766115717</v>
+        <v>0.3824713679141433</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3407374754958917</v>
+        <v>0.3872970596914088</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3572770032184771</v>
+        <v>0.3981041893598359</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3572770032184771</v>
+        <v>0.3981041893598359</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3382377586154649</v>
+        <v>0.3650909495002461</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.1494971260001378</v>
+        <v>0.1889871260001378</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1600278920736759</v>
+        <v>0.1977078920736759</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1832385387560951</v>
+        <v>0.2517085387560951</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1857898735053296</v>
+        <v>0.2458298735053296</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1857898735053296</v>
+        <v>0.2517085387560951</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1494971260001378</v>
+        <v>0.1889871260001378</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.1742657931327441</v>
+        <v>0.1998067620169183</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1798352398632373</v>
+        <v>0.2042055540581141</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2092826681743633</v>
+        <v>0.2535670474982277</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2073326121498384</v>
+        <v>0.2461647157660911</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2092826681743633</v>
+        <v>0.2535670474982277</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1742657931327441</v>
+        <v>0.1998067620169183</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.2272234453878069</v>
+        <v>0.2663516881247673</v>
       </c>
       <c r="B102" t="n">
-        <v>0.257228832386409</v>
+        <v>0.2945636560462892</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2554198747583701</v>
+        <v>0.3232626395139963</v>
       </c>
       <c r="D102" t="n">
-        <v>0.279845810004639</v>
+        <v>0.3393357997217092</v>
       </c>
       <c r="E102" t="n">
-        <v>0.279845810004639</v>
+        <v>0.3393357997217092</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2272234453878069</v>
+        <v>0.2663516881247673</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.09311888843492473</v>
+        <v>0.1206666979633681</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09908921831717533</v>
+        <v>0.125374390842669</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09830568773675347</v>
+        <v>0.1460696411024794</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1033539739741733</v>
+        <v>0.1452372478178739</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1033539739741733</v>
+        <v>0.1460696411024794</v>
       </c>
       <c r="F103" t="n">
-        <v>0.09311888843492473</v>
+        <v>0.1206666979633681</v>
       </c>
     </row>
     <row r="104">
@@ -43833,82 +43843,82 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1730886773056922</v>
+        <v>0.1888309320182909</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1956613219557727</v>
+        <v>0.2106820400507517</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1761355650336178</v>
+        <v>0.2034303784084376</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1987108604971231</v>
+        <v>0.2226451469733051</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1987108604971231</v>
+        <v>0.2226451469733051</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1730886773056922</v>
+        <v>0.1888309320182909</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.0195551093594519</v>
+        <v>0.0384549908274616</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01922266446347918</v>
+        <v>0.03725628142257276</v>
       </c>
       <c r="C106" t="n">
-        <v>0.02582830320271622</v>
+        <v>0.05859798879690776</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02403802308862067</v>
+        <v>0.0527731176274736</v>
       </c>
       <c r="E106" t="n">
-        <v>0.02582830320271622</v>
+        <v>0.05859798879690776</v>
       </c>
       <c r="F106" t="n">
-        <v>0.01922266446347918</v>
+        <v>0.03725628142257276</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.9394021546645999</v>
+        <v>0.9788921546645999</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9412146147864338</v>
+        <v>0.9788946147864338</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9088573576655354</v>
+        <v>0.9773273576655355</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9175816612500224</v>
+        <v>0.9776216612500224</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9412146147864338</v>
+        <v>0.9788946147864338</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9088573576655354</v>
+        <v>0.9773273576655355</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.7449259376724725</v>
+        <v>0.7801456546085278</v>
       </c>
       <c r="B108" t="n">
-        <v>0.78569158057389</v>
+        <v>0.8192970233227015</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7443950553607221</v>
+        <v>0.8054609965765163</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7925071419133818</v>
+        <v>0.846054667991902</v>
       </c>
       <c r="E108" t="n">
-        <v>0.7925071419133818</v>
+        <v>0.846054667991902</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7443950553607221</v>
+        <v>0.7801456546085278</v>
       </c>
     </row>
     <row r="109">
@@ -43973,82 +43983,82 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.9247495602570348</v>
+        <v>0.9640273903778116</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9265305417773948</v>
+        <v>0.9640080965748339</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9011744085578495</v>
+        <v>0.9692765363970387</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9106980923045277</v>
+        <v>0.9704155124223154</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9265305417773948</v>
+        <v>0.9704155124223154</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9011744085578495</v>
+        <v>0.9640080965748339</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.3558670380053851</v>
+        <v>0.3815546321469634</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4023313326080996</v>
+        <v>0.4268415515813757</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3632955165710837</v>
+        <v>0.4078341230758664</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4149909138983829</v>
+        <v>0.4540459443430617</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4149909138983829</v>
+        <v>0.4540459443430617</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3558670380053851</v>
+        <v>0.3815546321469634</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.001017762787389208</v>
+        <v>0.01777602685937439</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001444302695730924</v>
+        <v>0.01743446198244659</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0009239945411136193</v>
+        <v>0.02998042252310465</v>
       </c>
       <c r="D114" t="n">
-        <v>0.001376166202089648</v>
+        <v>0.02685517797423426</v>
       </c>
       <c r="E114" t="n">
-        <v>0.001444302695730924</v>
+        <v>0.02998042252310465</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0009239945411136193</v>
+        <v>0.01743446198244659</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2808955730184116</v>
+        <v>0.3067149817853331</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3277995878933803</v>
+        <v>0.3524355798492578</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2918193969510366</v>
+        <v>0.3365865511235136</v>
       </c>
       <c r="D115" t="n">
-        <v>0.338547202986397</v>
+        <v>0.3778026423980446</v>
       </c>
       <c r="E115" t="n">
-        <v>0.338547202986397</v>
+        <v>0.3778026423980446</v>
       </c>
       <c r="F115" t="n">
-        <v>0.2808955730184116</v>
+        <v>0.3067149817853331</v>
       </c>
     </row>
     <row r="116">
@@ -44073,222 +44083,222 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.1131317619523628</v>
+        <v>0.1336948774008258</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1347668439443395</v>
+        <v>0.1543874615715384</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1306892428111271</v>
+        <v>0.1663427377403816</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1481759041753088</v>
+        <v>0.1794397545558031</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1481759041753088</v>
+        <v>0.1794397545558031</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1131317619523628</v>
+        <v>0.1336948774008258</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.188432140755854</v>
+        <v>0.2143107920510196</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1992242880996418</v>
+        <v>0.223916807238711</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2164160596899199</v>
+        <v>0.2612859319152931</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2214922104101076</v>
+        <v>0.260837721267584</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2214922104101076</v>
+        <v>0.2612859319152931</v>
       </c>
       <c r="F118" t="n">
-        <v>0.188432140755854</v>
+        <v>0.2143107920510196</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.1722505976091797</v>
+        <v>0.19113122525551</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1793011041568784</v>
+        <v>0.1973163497814347</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1896454639121897</v>
+        <v>0.2223817661391899</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1885161003691979</v>
+        <v>0.2172219216881565</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1896454639121897</v>
+        <v>0.2223817661391899</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1722505976091797</v>
+        <v>0.19113122525551</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4694348711713463</v>
+        <v>0.5089248711713463</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5020214819109752</v>
+        <v>0.5397014819109752</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4919423472900633</v>
+        <v>0.5604123472900633</v>
       </c>
       <c r="D120" t="n">
-        <v>0.521965522466643</v>
+        <v>0.5820055224666429</v>
       </c>
       <c r="E120" t="n">
-        <v>0.521965522466643</v>
+        <v>0.5820055224666429</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4694348711713463</v>
+        <v>0.5089248711713463</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.6700115719284799</v>
+        <v>0.70950157192848</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6947929222565121</v>
+        <v>0.7324729222565122</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6690663450836534</v>
+        <v>0.7375363450836534</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6976554011769651</v>
+        <v>0.7576954011769651</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6976554011769651</v>
+        <v>0.7576954011769651</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6690663450836534</v>
+        <v>0.70950157192848</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.319019891897628</v>
+        <v>0.3585098918976281</v>
       </c>
       <c r="B122" t="n">
-        <v>0.365530015929054</v>
+        <v>0.403210015929054</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3416544195233777</v>
+        <v>0.4101244195233777</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3826948439651136</v>
+        <v>0.4427348439651135</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3826948439651136</v>
+        <v>0.4427348439651135</v>
       </c>
       <c r="F122" t="n">
-        <v>0.319019891897628</v>
+        <v>0.3585098918976281</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.3421710782492816</v>
+        <v>0.3816610782492815</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3775095489402125</v>
+        <v>0.4151895489402125</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3679970588269525</v>
+        <v>0.4364670588269525</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3984379937434435</v>
+        <v>0.4584779937434434</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3984379937434435</v>
+        <v>0.4584779937434434</v>
       </c>
       <c r="F123" t="n">
-        <v>0.3421710782492816</v>
+        <v>0.3816610782492815</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.01142602760367052</v>
+        <v>0.01279160177463036</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01329571830924793</v>
+        <v>0.01459870222319492</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01045434339632259</v>
+        <v>0.01282205328453783</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01253253707946721</v>
+        <v>0.01460873543916406</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01329571830924793</v>
+        <v>0.01460873543916406</v>
       </c>
       <c r="F124" t="n">
-        <v>0.01045434339632259</v>
+        <v>0.01279160177463036</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.3930274217485721</v>
+        <v>0.4178871015579391</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4451082648410285</v>
+        <v>0.4688285164292014</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4045588334166747</v>
+        <v>0.4476619551322319</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4606975033074203</v>
+        <v>0.4984937852966427</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4606975033074203</v>
+        <v>0.4984937852966427</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3930274217485721</v>
+        <v>0.4178871015579391</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.05372084455194857</v>
+        <v>0.05372384057329392</v>
       </c>
       <c r="B126" t="n">
-        <v>0.058714871399126</v>
+        <v>0.05871773009966519</v>
       </c>
       <c r="C126" t="n">
-        <v>0.04926078992912207</v>
+        <v>0.04926598460072287</v>
       </c>
       <c r="D126" t="n">
-        <v>0.05551451475881859</v>
+        <v>0.05551906986445482</v>
       </c>
       <c r="E126" t="n">
-        <v>0.058714871399126</v>
+        <v>0.05871773009966519</v>
       </c>
       <c r="F126" t="n">
-        <v>0.04926078992912207</v>
+        <v>0.04926598460072287</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.2535139325147187</v>
+        <v>0.2930039325147187</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2800120052425237</v>
+        <v>0.3176920052425237</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2817834760636344</v>
+        <v>0.3502534760636344</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3018133100828548</v>
+        <v>0.3618533100828548</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3018133100828548</v>
+        <v>0.3618533100828548</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2535139325147187</v>
+        <v>0.2930039325147187</v>
       </c>
     </row>
     <row r="128">
@@ -44333,42 +44343,42 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.7207331440940332</v>
+        <v>0.7602231440940332</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7286788848229302</v>
+        <v>0.7663588848229302</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7071530991957464</v>
+        <v>0.7756230991957465</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7226444036738008</v>
+        <v>0.7826844036738008</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7286788848229302</v>
+        <v>0.7826844036738008</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7071530991957464</v>
+        <v>0.7602231440940332</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.8296867535698723</v>
+        <v>0.8691767535698723</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8451013199483549</v>
+        <v>0.882781319948355</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8165490739640608</v>
+        <v>0.8850190739640609</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8383675726491548</v>
+        <v>0.8984075726491548</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8451013199483549</v>
+        <v>0.8984075726491548</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8165490739640608</v>
+        <v>0.8691767535698723</v>
       </c>
     </row>
     <row r="132">
@@ -44413,22 +44423,22 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.751811104689583</v>
+        <v>0.791301104689583</v>
       </c>
       <c r="B134" t="n">
-        <v>0.778911609994215</v>
+        <v>0.8165916099942151</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7497290615353702</v>
+        <v>0.8181990615353703</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7836955468199818</v>
+        <v>0.8437355468199818</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7836955468199818</v>
+        <v>0.8437355468199818</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7497290615353702</v>
+        <v>0.791301104689583</v>
       </c>
     </row>
     <row r="135">
@@ -44453,22 +44463,22 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.03040730893746254</v>
+        <v>0.03407445533070597</v>
       </c>
       <c r="B136" t="n">
-        <v>0.04204446486979409</v>
+        <v>0.04554352985073641</v>
       </c>
       <c r="C136" t="n">
-        <v>0.03095166782163699</v>
+        <v>0.03730997406487267</v>
       </c>
       <c r="D136" t="n">
-        <v>0.04216336426723926</v>
+        <v>0.04773883829738196</v>
       </c>
       <c r="E136" t="n">
-        <v>0.04216336426723926</v>
+        <v>0.04773883829738196</v>
       </c>
       <c r="F136" t="n">
-        <v>0.03040730893746254</v>
+        <v>0.03407445533070597</v>
       </c>
     </row>
     <row r="137">
@@ -44493,62 +44503,62 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.1279407970936811</v>
+        <v>0.1391584037116361</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1483449623164278</v>
+        <v>0.1590484167951451</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1273868857538605</v>
+        <v>0.146836607838727</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1492130176704893</v>
+        <v>0.1662680974715026</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1492130176704893</v>
+        <v>0.1662680974715026</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1273868857538605</v>
+        <v>0.1391584037116361</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.96051</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9623199999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9315199999999999</v>
+        <v>0.9999899999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9399700000000001</v>
+        <v>1.00001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9623199999999998</v>
+        <v>1.00001</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9315199999999999</v>
+        <v>0.9999899999999999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9015641987580478</v>
+        <v>0.9410541987580479</v>
       </c>
       <c r="B140" t="n">
-        <v>0.903437361242033</v>
+        <v>0.941117361242033</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8674082962446208</v>
+        <v>0.9358782962446208</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8768862269982521</v>
+        <v>0.9369262269982521</v>
       </c>
       <c r="E140" t="n">
-        <v>0.903437361242033</v>
+        <v>0.941117361242033</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8674082962446208</v>
+        <v>0.9358782962446208</v>
       </c>
     </row>
     <row r="141">
@@ -44613,62 +44623,62 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.3130220921118044</v>
+        <v>0.3525120921118045</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3233200854267346</v>
+        <v>0.3610000854267346</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3234771742233282</v>
+        <v>0.3919471742233283</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3278308381597125</v>
+        <v>0.3878708381597125</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3278308381597125</v>
+        <v>0.3919471742233283</v>
       </c>
       <c r="F144" t="n">
-        <v>0.3130220921118044</v>
+        <v>0.3525120921118045</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.07961067487749646</v>
+        <v>0.0820263228615831</v>
       </c>
       <c r="B145" t="n">
-        <v>0.08385983471051703</v>
+        <v>0.08616476294653588</v>
       </c>
       <c r="C145" t="n">
-        <v>0.08409326296555053</v>
+        <v>0.08828165034135231</v>
       </c>
       <c r="D145" t="n">
-        <v>0.08743561471982472</v>
+        <v>0.09110832945683567</v>
       </c>
       <c r="E145" t="n">
-        <v>0.08743561471982472</v>
+        <v>0.09110832945683567</v>
       </c>
       <c r="F145" t="n">
-        <v>0.07961067487749646</v>
+        <v>0.0820263228615831</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.02167348980010511</v>
+        <v>0.02291465466175231</v>
       </c>
       <c r="B146" t="n">
-        <v>0.02506156338107653</v>
+        <v>0.02624584021032107</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0238665290327714</v>
+        <v>0.02601853100990445</v>
       </c>
       <c r="D146" t="n">
-        <v>0.02669003776801761</v>
+        <v>0.02857708609147414</v>
       </c>
       <c r="E146" t="n">
-        <v>0.02669003776801761</v>
+        <v>0.02857708609147414</v>
       </c>
       <c r="F146" t="n">
-        <v>0.02167348980010511</v>
+        <v>0.02291465466175231</v>
       </c>
     </row>
     <row r="147">
@@ -44713,22 +44723,22 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.312406917876242</v>
+        <v>0.3423451634193351</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3268408814023719</v>
+        <v>0.3554069257696484</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3318548168733559</v>
+        <v>0.3837634436734467</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3435942135318944</v>
+        <v>0.389111870214784</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3435942135318944</v>
+        <v>0.389111870214784</v>
       </c>
       <c r="F149" t="n">
-        <v>0.312406917876242</v>
+        <v>0.3423451634193351</v>
       </c>
     </row>
     <row r="150">
@@ -44773,82 +44783,82 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.2542251238915246</v>
+        <v>0.2937151238915245</v>
       </c>
       <c r="B152" t="n">
-        <v>0.2756320977825669</v>
+        <v>0.3133120977825669</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2942676260093278</v>
+        <v>0.3627376260093278</v>
       </c>
       <c r="D152" t="n">
-        <v>0.306340478312405</v>
+        <v>0.366380478312405</v>
       </c>
       <c r="E152" t="n">
-        <v>0.306340478312405</v>
+        <v>0.366380478312405</v>
       </c>
       <c r="F152" t="n">
-        <v>0.2542251238915246</v>
+        <v>0.2937151238915245</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9341163533196613</v>
+        <v>0.9730979707992174</v>
       </c>
       <c r="B153" t="n">
-        <v>0.935928545240819</v>
+        <v>0.9731234641222999</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9033966728260827</v>
+        <v>0.9709852104007906</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9122058932493545</v>
+        <v>0.9714729561379986</v>
       </c>
       <c r="E153" t="n">
-        <v>0.935928545240819</v>
+        <v>0.9731234641222999</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9033966728260827</v>
+        <v>0.9709852104007906</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.7605103744380584</v>
+        <v>0.79697418446724</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7912144981985103</v>
+        <v>0.8260070117943463</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7492416689599886</v>
+        <v>0.8124646892866045</v>
       </c>
       <c r="D154" t="n">
-        <v>0.7794332226239603</v>
+        <v>0.8348722490648837</v>
       </c>
       <c r="E154" t="n">
-        <v>0.7912144981985103</v>
+        <v>0.8348722490648837</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7492416689599886</v>
+        <v>0.79697418446724</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.3257868248602173</v>
+        <v>0.360968034152914</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3377455209947288</v>
+        <v>0.3713142210744657</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3565838779499907</v>
+        <v>0.4175830524314022</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3633107930918594</v>
+        <v>0.4167997727305909</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3633107930918594</v>
+        <v>0.4175830524314022</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3257868248602173</v>
+        <v>0.360968034152914</v>
       </c>
     </row>
     <row r="156">
@@ -44873,22 +44883,22 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.3234797903358962</v>
+        <v>0.3491718276670929</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3509097663160728</v>
+        <v>0.3754242248280882</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3490096672546552</v>
+        <v>0.3935559776134052</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3722124707654026</v>
+        <v>0.4112742565685185</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3722124707654026</v>
+        <v>0.4112742565685185</v>
       </c>
       <c r="F157" t="n">
-        <v>0.3234797903358962</v>
+        <v>0.3491718276670929</v>
       </c>
     </row>
     <row r="158">
@@ -44913,22 +44923,22 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.02481763550790636</v>
+        <v>0.03224816350785674</v>
       </c>
       <c r="B159" t="n">
-        <v>0.02561005323130749</v>
+        <v>0.03270000752449895</v>
       </c>
       <c r="C159" t="n">
-        <v>0.02833842774985173</v>
+        <v>0.04122189830332357</v>
       </c>
       <c r="D159" t="n">
-        <v>0.02856569448369389</v>
+        <v>0.03986295711010617</v>
       </c>
       <c r="E159" t="n">
-        <v>0.02856569448369389</v>
+        <v>0.04122189830332357</v>
       </c>
       <c r="F159" t="n">
-        <v>0.02481763550790636</v>
+        <v>0.03224816350785674</v>
       </c>
     </row>
     <row r="160">

--- a/Data/Potential/AMOS.xlsx
+++ b/Data/Potential/AMOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="769" visibility="visible" windowHeight="7760" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="769" visibility="visible" windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -355,13 +355,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="4" min="2" width="12"/>
-    <col customWidth="1" max="6" min="6" width="14.26953125"/>
-    <col customWidth="1" max="7" min="7" width="13.26953125"/>
+    <col customWidth="1" max="6" min="6" width="14.28515625"/>
+    <col customWidth="1" max="7" min="7" width="13.28515625"/>
     <col customWidth="1" max="9" min="8" width="14"/>
-    <col customWidth="1" max="11" min="11" width="12.7265625"/>
+    <col customWidth="1" max="11" min="11" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
